--- a/predictions/single/AdaBoostRegressor/Infarto de miocardio.xlsx
+++ b/predictions/single/AdaBoostRegressor/Infarto de miocardio.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2326470836395026</v>
+        <v>0.2385249983986734</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9954529068996307</v>
+        <v>0.9953380229078442</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/predictions/single/AdaBoostRegressor/Infarto de miocardio.xlsx
+++ b/predictions/single/AdaBoostRegressor/Infarto de miocardio.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2385249983986734</v>
+        <v>0.2371215098415006</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9953380229078442</v>
+        <v>0.9953654541269893</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/predictions/single/AdaBoostRegressor/Infarto de miocardio.xlsx
+++ b/predictions/single/AdaBoostRegressor/Infarto de miocardio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -462,12 +467,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2371215098415006</v>
+        <v>0.2405818208600997</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9953654541269893</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>0.9952978222611105</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.380904464225422</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>single</t>
         </is>

--- a/predictions/single/AdaBoostRegressor/Infarto de miocardio.xlsx
+++ b/predictions/single/AdaBoostRegressor/Infarto de miocardio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,17 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2405818208600997</v>
+        <v>0.2422940601436104</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9952978222611105</v>
+        <v>0.9952643565012547</v>
       </c>
       <c r="D2" t="n">
-        <v>0.380904464225422</v>
+        <v>0.3844238686478025</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>single</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('model', AdaBoostRegressor(learning_rate=0.1))])</t>
         </is>
       </c>
     </row>

--- a/predictions/single/AdaBoostRegressor/Infarto de miocardio.xlsx
+++ b/predictions/single/AdaBoostRegressor/Infarto de miocardio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Modelo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2422940601436104</v>
+        <v>0.2379811448550953</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9952643565012547</v>
+        <v>0.9953486525390304</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3844238686478025</v>
+        <v>0.3804142708913718</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -489,6 +499,12 @@
         <is>
           <t>Pipeline(steps=[('model', AdaBoostRegressor(learning_rate=0.1))])</t>
         </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1239050709499376</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.991</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/AdaBoostRegressor/Infarto de miocardio.xlsx
+++ b/predictions/single/AdaBoostRegressor/Infarto de miocardio.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2379811448550953</v>
+        <v>0.2331544681443025</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9953486525390304</v>
+        <v>0.9954429900567247</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3804142708913718</v>
+        <v>0.3775348834010136</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -497,14 +497,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('model', AdaBoostRegressor(learning_rate=0.1))])</t>
+          <t>Pipeline(steps=[('model', AdaBoostRegressor(learning_rate=0.5))])</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.1239050709499376</v>
+        <v>0.1237171906335182</v>
       </c>
       <c r="H2" t="n">
-        <v>0.991</v>
+        <v>0.985</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/AdaBoostRegressor/Infarto de miocardio.xlsx
+++ b/predictions/single/AdaBoostRegressor/Infarto de miocardio.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2331544681443025</v>
+        <v>0.2330189483988993</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9954429900567247</v>
+        <v>0.9954456387935566</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3775348834010136</v>
+        <v>0.3813664692165162</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.1237171906335182</v>
+        <v>0.1227843119001288</v>
       </c>
       <c r="H2" t="n">
         <v>0.985</v>
